--- a/branches/update-code-systems/ValueSet-vs-vl-suppression.xlsx
+++ b/branches/update-code-systems/ValueSet-vs-vl-suppression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T09:53:38+00:00</t>
+    <t>2023-03-14T11:49:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -105,19 +105,19 @@
     <t>245780008</t>
   </si>
   <si>
-    <t>Suppressed (qualifier value)</t>
+    <t>Suppressed</t>
   </si>
   <si>
     <t>19032002</t>
   </si>
   <si>
-    <t>Uncontrolled (qualifier value)</t>
+    <t>Uncontrolled</t>
   </si>
   <si>
     <t>261665006</t>
   </si>
   <si>
-    <t>Unknown (qualifier value)</t>
+    <t>Unknown</t>
   </si>
   <si>
     <t/>

--- a/branches/update-code-systems/ValueSet-vs-vl-suppression.xlsx
+++ b/branches/update-code-systems/ValueSet-vs-vl-suppression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-14T11:49:46+00:00</t>
+    <t>2023-03-24T12:30:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
